--- a/data/trans_dic/P25_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece hipertensión/presión arterial alta</t>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +710,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>1,31%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,91</t>
+          <t>0,91; 9,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>0,62; 5,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,29</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0,0; 4,59</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 3,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,25</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,47</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 6,03</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,74%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>3,23%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,58</t>
+          <t>1,24; 7,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,18</t>
+          <t>0,54; 5,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,71</t>
+          <t>0,4; 4,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,85</t>
+          <t>2,62; 10,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,46</t>
+          <t>1,69; 9,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,7</t>
+          <t>2,11; 10,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,04</t>
+          <t>0,82; 5,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,31</t>
+          <t>1,16; 5,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,26</t>
+          <t>0,41; 4,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,4</t>
+          <t>0,9; 6,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,9</t>
+          <t>0,5; 4,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,92</t>
+          <t>1,53; 10,15</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 5,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 4,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 3,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 6,72</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 5,8</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 7,71</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>4,83%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,56%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>6,44%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 9,71</t>
+          <t>3,38; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,24</t>
+          <t>4,75; 10,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,04</t>
+          <t>4,78; 11,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 13,65</t>
+          <t>5,58; 12,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,19</t>
+          <t>4,45; 13,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,07</t>
+          <t>10,24; 22,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,24</t>
+          <t>1,72; 6,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,25</t>
+          <t>1,46; 5,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,79</t>
+          <t>2,64; 7,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,29</t>
+          <t>5,65; 14,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,27</t>
+          <t>2,46; 7,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,51</t>
+          <t>3,62; 10,41</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 7,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 7,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 7,71</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 12,49</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 9,25</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 15,29</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>23,25%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,08%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>18,9%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,09%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,96%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,98%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>21,19%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 22,31</t>
+          <t>12,9; 22,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,16; 20,2</t>
+          <t>12,03; 20,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,35</t>
+          <t>14,02; 22,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 30,11</t>
+          <t>17,13; 27,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,87</t>
+          <t>17,38; 29,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 18,24</t>
+          <t>18,54; 30,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 22,64</t>
+          <t>13,29; 21,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 24,31</t>
+          <t>10,87; 18,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 20,58</t>
+          <t>14,57; 22,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,76</t>
+          <t>16,31; 25,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,92</t>
+          <t>13,99; 24,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 25,43</t>
+          <t>15,29; 25,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,23; 20,56</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 17,85</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 20,86</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 24,65</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 25,29</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 26,66</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>39,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>36,93%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>31,62%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>29,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>31,86%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>32,15%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>30,38%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>36,98%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>37,37%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>35,62%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>34,28%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,56; 39,35</t>
+          <t>27,63; 40,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,71; 37,88</t>
+          <t>26,78; 38,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,99; 47,11</t>
+          <t>34,84; 47,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,06; 44,22</t>
+          <t>33,45; 47,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,34; 38,32</t>
+          <t>29,67; 44,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,02; 34,48</t>
+          <t>29,4; 43,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,82; 39,7</t>
+          <t>25,0; 38,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,97; 38,05</t>
+          <t>23,91; 34,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,01; 36,97</t>
+          <t>28,52; 40,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,24; 34,52</t>
+          <t>24,61; 38,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,15; 41,63</t>
+          <t>25,94; 38,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,52; 39,14</t>
+          <t>23,36; 35,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>27,89; 37,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>26,77; 34,81</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>33,32; 41,56</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>30,83; 41,01</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>29,54; 39,25</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>28,21; 37,56</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59,21%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>54,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>56,75%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>56,87%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>52,62%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>58,03%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>54,3%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>57,91%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>53,11%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>57,68%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>51,36%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>55,96%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>49,26%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,36; 56,91</t>
+          <t>41,01; 57,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,22; 59,68</t>
+          <t>43,26; 58,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,18; 63,44</t>
+          <t>47,47; 63,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,56; 63,98</t>
+          <t>38,53; 56,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,6; 70,36</t>
+          <t>45,94; 63,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,03; 60,89</t>
+          <t>34,14; 50,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,25; 68,28</t>
+          <t>57,98; 70,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,46; 65,83</t>
+          <t>48,18; 61,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,43; 62,74</t>
+          <t>52,17; 65,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,38; 57,94</t>
+          <t>45,72; 64,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,38; 63,89</t>
+          <t>46,81; 65,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>49,13; 62,5</t>
+          <t>45,34; 62,03</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>52,66; 62,66</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>47,77; 58,01</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>52,29; 62,83</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>45,04; 57,79</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>48,71; 62,45</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>43,43; 55,68</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>21,33%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>19,68%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>18,0%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>20,15%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>21,08%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,07; 19,68</t>
+          <t>15,43; 20,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 19,82</t>
+          <t>15,54; 19,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,36; 21,75</t>
+          <t>17,12; 21,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,33; 23,52</t>
+          <t>17,69; 23,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,76; 24,92</t>
+          <t>18,34; 23,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 20,6</t>
+          <t>18,07; 23,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,58; 24,07</t>
+          <t>19,81; 24,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,58</t>
+          <t>16,63; 20,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,59</t>
+          <t>18,69; 23,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,64</t>
+          <t>19,02; 24,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,58; 22,02</t>
+          <t>18,5; 24,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,15; 23,16</t>
+          <t>18,74; 24,06</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 21,64</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 19,62</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 21,99</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 23,02</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 23,02</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 22,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,84%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6667</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6147</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11432</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6147</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18099</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7567</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21010</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19357</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>400; 3980</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22333</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3180; 27356</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20992</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18764</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21761</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6583; 39481</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23088</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23181</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>491; 4983</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19362</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11676</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8297</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32902</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2346</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2278</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12226</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15107</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8693</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12310</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>31587</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26783</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16990</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>45213</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4155</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7122; 41141</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3017; 28298</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2343; 24445</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15148; 60044</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>837; 4773</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1036; 4899</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4210; 26174</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5904; 29566</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2127; 23396</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4558; 30294</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>235; 2120</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>704; 4669</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15307; 54516</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14342; 46802</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6768; 34180</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>25598; 72758</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1527; 5593</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2159; 7323</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42789</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50529</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50434</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58056</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4721</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9169</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25382</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20467</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32108</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64313</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2585</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>68172</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>70996</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>82542</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>122369</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7306</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12638</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23226; 68390</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32199; 73138</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32533; 75797</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37719; 86424</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2666; 8225</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6188; 13620</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12156; 46477</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10460; 38550</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18832; 51631</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40279; 100166</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1318; 4123</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1984; 5710</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>46373; 101756</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>49881; 101009</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>57196; 107457</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>89153; 173591</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4792; 10489</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9047; 17629</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>110785</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>102521</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>112552</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144389</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13545</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13759</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>116813</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>96129</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>119770</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>131100</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9907</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10737</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>227598</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>198651</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>232321</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>275490</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>23452</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>24496</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>83500; 143483</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>77698; 129744</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>89260; 140682</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>112732; 179781</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10129; 16916</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10562; 17498</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>90847; 148994</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72818; 120928</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>95460; 144753</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>106573; 166725</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7337; 12891</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8143; 13593</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>189357; 273646</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>165477; 234877</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>197699; 269502</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>229016; 323326</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>19092; 27991</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20083; 29392</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>167228</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>163974</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>200169</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>197742</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16334</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16277</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>161429</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>146746</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>176224</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>162698</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15466</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13638</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>328657</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>310720</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>376394</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>360439</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>31799</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29916</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>136839; 202626</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>134925; 195536</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>171401; 232458</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>165600; 233107</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13121; 19682</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13126; 19416</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>126180; 192933</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>119866; 173375</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>146900; 207217</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>127238; 200822</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12591; 18694</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10876; 16723</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>278873; 370326</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>269107; 349929</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>335523; 418525</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>311983; 414962</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>27406; 36407</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>25730; 34261</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>268452</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>267971</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>296571</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>265693</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>25710</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19411</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>462915</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>382140</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>408141</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>399034</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>35587</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34247</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>731368</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>650110</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>704712</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>664727</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>61297</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>53657</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>223594; 311477</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>228931; 310133</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>252741; 335933</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>218251; 319838</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21518; 29585</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15651; 23366</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>416118; 507777</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>334775; 426931</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>359641; 450796</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>332731; 468806</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29354; 41206</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>28601; 39123</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>665109; 791356</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>584778; 710038</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>638877; 767682</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>582876; 747899</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>53360; 68408</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>47303; 60644</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>622.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>608617</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>603337</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>668023</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>702944</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62656</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>62421</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>784913</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>672021</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>751715</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>772860</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>64311</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>64239</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1393529</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1275358</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1419738</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1475804</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>126967</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>126660</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>532254; 691783</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>534550; 674712</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>589456; 743688</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>609160; 797037</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>55194; 72015</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>54396; 70200</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>712332; 879353</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>599065; 746906</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>673551; 838047</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>682005; 864188</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>55793; 73687</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>56668; 72725</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1286199; 1524611</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1176507; 1381829</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1315979; 1549514</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1352299; 1618171</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>115382; 138676</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>115535; 137624</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
